--- a/backend_python/templates/customer_template.xlsx
+++ b/backend_python/templates/customer_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ประเภทธุรกิจ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>ชื่อลูกค้า</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>เลขประจำตัวผู้เสียภาษี</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ชื่อผู้ติดต่อ</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ที่อยู่</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>แขวง/ตำบล</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>เขต/อำเภอ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>จังหวัด</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>รหัสไปรษณีย์</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ชื่อผู้ติดต่อหลัก</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>เบอร์โทร</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>อีเมล</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ที่อยู่</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ลิงก์ Google Maps</t>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ผู้ติดต่อรอง</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>เงื่อนไขการชำระเงิน</t>
         </is>
       </c>
     </row>
@@ -483,37 +513,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>บริษัทจำกัด</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>บริษัท ตัวอย่าง จำกัด</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0123456789012</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>123 ถนนพระราม 4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ปทุมวัน</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ปทุมวัน</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>กรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10330</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>คุณสมชาย</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>081-234-5678</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>info@example.com</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>123 ถนนพระราม 4 แขวงปทุมวัน เขตปทุมวัน กรุงเทพฯ 10330</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?q=13.7563,100.5018</t>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>คุณสมหญิง, 082-345-6789</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>เครดิต 30 วัน</t>
         </is>
       </c>
     </row>
@@ -525,27 +585,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ห้างหุ้นส่วน</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>ห้างหุ้นส่วน ABC</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>คุณสมหญิง</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>082-345-6789</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>456 ซอยสุขุมวิท 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>คลองเตย</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>456 ซอยสุขุมวิท 1 เขตวัฒนา กรุงเทพฯ</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>คลองเตย</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>กรุงเทพมหานคร</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10110</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>คุณสมศักดิ์</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>089-123-4567</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>เงินสด</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
